--- a/reports/Statistic_report_from_number_variables.xlsx
+++ b/reports/Statistic_report_from_number_variables.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Variáveis</t>
+          <t>Features</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/reports/Statistic_report_from_number_variables.xlsx
+++ b/reports/Statistic_report_from_number_variables.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,32 +486,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SeniorCitizen</t>
+          <t>tenure</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1621468124378816</v>
+        <v>32.37114865824223</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3685854360309371</v>
+        <v>24.55773742286344</v>
       </c>
       <c r="I2" t="n">
-        <v>1.833632744092856</v>
+        <v>0.2395397495619829</v>
       </c>
       <c r="J2" t="n">
-        <v>1.362595895793911</v>
+        <v>-1.387371635971685</v>
       </c>
     </row>
     <row r="3">
@@ -520,32 +520,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>tenure</t>
+          <t>MonthlyCharges</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>18.25</v>
       </c>
       <c r="D3" t="n">
-        <v>72</v>
+        <v>118.75</v>
       </c>
       <c r="E3" t="n">
-        <v>72</v>
+        <v>100.5</v>
       </c>
       <c r="F3" t="n">
-        <v>32.37114865824223</v>
+        <v>64.76169246059918</v>
       </c>
       <c r="G3" t="n">
-        <v>29</v>
+        <v>70.34999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>24.55773742286344</v>
+        <v>30.08791085493698</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2395397495619829</v>
+        <v>-0.2205244339439803</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.387371635971685</v>
+        <v>-1.257259694549506</v>
       </c>
     </row>
     <row r="4">
@@ -554,65 +554,31 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MonthlyCharges</t>
+          <t>TotalCharges</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18.25</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>118.75</v>
+        <v>8684.799999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>100.5</v>
+        <v>8684.799999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>64.76169246059918</v>
+        <v>2279.734303563822</v>
       </c>
       <c r="G4" t="n">
-        <v>70.34999999999999</v>
+        <v>1394.55</v>
       </c>
       <c r="H4" t="n">
-        <v>30.08791085493698</v>
+        <v>2266.633538627111</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2205244339439803</v>
+        <v>0.963234654832277</v>
       </c>
       <c r="J4" t="n">
-        <v>-1.257259694549506</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>TotalCharges</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8684.799999999999</v>
-      </c>
-      <c r="E5" t="n">
-        <v>8684.799999999999</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2279.734303563822</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1394.55</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2266.633538627111</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.963234654832277</v>
-      </c>
-      <c r="J5" t="n">
         <v>-0.2285798071237313</v>
       </c>
     </row>
